--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1751.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1751.xlsx
@@ -354,10 +354,10 @@
         <v>1.313176757796574</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E1">
         <v>1.638950249055666</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1751.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1751.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.6699661043724923</v>
+        <v>0.3858091235160828</v>
       </c>
       <c r="B1">
-        <v>1.313176757796574</v>
+        <v>0.6176436543464661</v>
       </c>
       <c r="C1">
         <v>15</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>1.407668113708496</v>
       </c>
       <c r="E1">
-        <v>1.638950249055666</v>
+        <v>0.8605092167854309</v>
       </c>
     </row>
   </sheetData>
